--- a/Stage 3/Evidence/Meeting Tracking.xlsx
+++ b/Stage 3/Evidence/Meeting Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adil_\Documents\Computer Science\Year 2\CO510\Term2\GroupWork\27a\Stage 3\Evidence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samli\Documents\Yuconz\27a\Stage 3\Evidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC666CB-52BE-4F62-B7A1-0D1D25D058FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607B2991-CF92-4B7F-AFB0-3CFDE74F0B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E293897E-8EBF-4E9F-923A-8549BB33F108}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E293897E-8EBF-4E9F-923A-8549BB33F108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2058,16 +2058,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2094,16 +2094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2431,16 +2431,16 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.46484375" customWidth="1"/>
+    <col min="2" max="2" width="42.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>7.5</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>7.5</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>7.5</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>7.5</v>
       </c>
@@ -2586,6 +2586,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>